--- a/week02/hw03.xlsx
+++ b/week02/hw03.xlsx
@@ -4799,7 +4799,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>汽車工業</t>
         </is>
       </c>
     </row>
